--- a/src/Source/rl_meta_test_data.xlsx
+++ b/src/Source/rl_meta_test_data.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rl-meta-test\src\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640569B0-1647-458F-8ACF-1DE813FD2AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92C179-A3FB-4E0D-942A-54AB78D94CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3E5CDAA-8D9B-49C7-9FE4-DF6B28B1C92B}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C3E5CDAA-8D9B-49C7-9FE4-DF6B28B1C92B}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="1" r:id="rId1"/>
     <sheet name="customer" sheetId="2" r:id="rId2"/>
     <sheet name="vehicle" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="demand">customer!$D$2:$D$11</definedName>
+    <definedName name="distance">distance!$A$2:$J$11</definedName>
+    <definedName name="dueTime">customer!$F$2:$F$11</definedName>
+    <definedName name="readyTime">customer!$E$2:$E$11</definedName>
+    <definedName name="service">customer!$G$2:$G$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -454,7 +461,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,6 +499,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>999999</v>
+      </c>
       <c r="B2">
         <v>18.681541692269398</v>
       </c>
@@ -524,6 +534,9 @@
       <c r="A3">
         <v>18.681541692269398</v>
       </c>
+      <c r="B3">
+        <v>999999</v>
+      </c>
       <c r="C3">
         <v>2</v>
       </c>
@@ -556,6 +569,9 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>99999</v>
+      </c>
       <c r="D4">
         <v>5</v>
       </c>
@@ -588,6 +604,9 @@
       <c r="C5">
         <v>5</v>
       </c>
+      <c r="D5">
+        <v>999999</v>
+      </c>
       <c r="E5">
         <v>2</v>
       </c>
@@ -620,6 +639,9 @@
       <c r="D6">
         <v>2</v>
       </c>
+      <c r="E6">
+        <v>999999</v>
+      </c>
       <c r="F6">
         <v>3</v>
       </c>
@@ -652,6 +674,9 @@
       <c r="E7">
         <v>3</v>
       </c>
+      <c r="F7">
+        <v>999999</v>
+      </c>
       <c r="G7">
         <v>4.4721359549995796</v>
       </c>
@@ -684,6 +709,9 @@
       <c r="F8">
         <v>4.4721359549995796</v>
       </c>
+      <c r="G8">
+        <v>999999</v>
+      </c>
       <c r="H8">
         <v>3</v>
       </c>
@@ -716,6 +744,9 @@
       <c r="G9">
         <v>3</v>
       </c>
+      <c r="H9">
+        <v>999999</v>
+      </c>
       <c r="I9">
         <v>2.8284271247461898</v>
       </c>
@@ -748,6 +779,9 @@
       <c r="H10">
         <v>2.8284271247461898</v>
       </c>
+      <c r="I10">
+        <v>999999</v>
+      </c>
       <c r="J10">
         <v>2</v>
       </c>
@@ -779,6 +813,9 @@
       </c>
       <c r="I11">
         <v>2</v>
+      </c>
+      <c r="J11">
+        <v>999999</v>
       </c>
     </row>
   </sheetData>
@@ -790,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01426432-20CA-4863-A82E-D5F660FBB47B}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="D11" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,6 +1172,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/src/Source/rl_meta_test_data.xlsx
+++ b/src/Source/rl_meta_test_data.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rl-meta-test\src\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92C179-A3FB-4E0D-942A-54AB78D94CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AF233D-34CC-46EF-9462-D071D84D20DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C3E5CDAA-8D9B-49C7-9FE4-DF6B28B1C92B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C3E5CDAA-8D9B-49C7-9FE4-DF6B28B1C92B}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="1" r:id="rId1"/>
-    <sheet name="customer" sheetId="2" r:id="rId2"/>
-    <sheet name="vehicle" sheetId="3" r:id="rId3"/>
+    <sheet name="distance v2" sheetId="4" r:id="rId2"/>
+    <sheet name="customer" sheetId="2" r:id="rId3"/>
+    <sheet name="vehicle" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="demand">customer!$D$2:$D$11</definedName>
     <definedName name="distance">distance!$A$2:$J$11</definedName>
+    <definedName name="distance_v2">'distance v2'!$A$2:$K$12</definedName>
     <definedName name="dueTime">customer!$F$2:$F$11</definedName>
     <definedName name="readyTime">customer!$E$2:$E$11</definedName>
     <definedName name="service">customer!$G$2:$G$11</definedName>
@@ -460,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC60FE6-23F6-4D68-8261-379DBB6FE8BB}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,11 +826,446 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F81B3D-6871-4201-A31C-22090689B252}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>999999</v>
+      </c>
+      <c r="B2">
+        <v>18.681541692269398</v>
+      </c>
+      <c r="C2">
+        <v>20.6155281280883</v>
+      </c>
+      <c r="D2">
+        <v>16.124515496597098</v>
+      </c>
+      <c r="E2">
+        <v>18.110770276274799</v>
+      </c>
+      <c r="F2">
+        <v>15.1327459504215</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>18.110770276274799</v>
+      </c>
+      <c r="J2">
+        <v>20.099751242241702</v>
+      </c>
+      <c r="K2">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>18.681541692269398</v>
+      </c>
+      <c r="B3">
+        <v>999999</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3.6055512754639798</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4.2426406871192803</v>
+      </c>
+      <c r="G3">
+        <v>5.0990195135927801</v>
+      </c>
+      <c r="H3">
+        <v>5.3851648071345002</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>7.2801098892805101</v>
+      </c>
+      <c r="K3">
+        <v>18.681541692269398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20.6155281280883</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>99999</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3.6055512754639798</v>
+      </c>
+      <c r="F4">
+        <v>5.8309518948452999</v>
+      </c>
+      <c r="G4">
+        <v>5.0990195135927801</v>
+      </c>
+      <c r="H4">
+        <v>6.4031242374328396</v>
+      </c>
+      <c r="I4">
+        <v>7.2801098892805101</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>20.6155281280883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16.124515496597098</v>
+      </c>
+      <c r="B5">
+        <v>3.6055512754639798</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>999999</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.6055512754639798</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="J5">
+        <v>5.6568542494923797</v>
+      </c>
+      <c r="K5">
+        <v>16.124515496597098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>18.110770276274799</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3.6055512754639798</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>999999</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H6">
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="K6">
+        <v>18.110770276274799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15.1327459504215</v>
+      </c>
+      <c r="B7">
+        <v>4.2426406871192803</v>
+      </c>
+      <c r="C7">
+        <v>5.8309518948452999</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>999999</v>
+      </c>
+      <c r="G7">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="H7">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>6.4031242374328396</v>
+      </c>
+      <c r="K7">
+        <v>15.1327459504215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>5.0990195135927801</v>
+      </c>
+      <c r="C8">
+        <v>5.0990195135927801</v>
+      </c>
+      <c r="D8">
+        <v>3.6055512754639798</v>
+      </c>
+      <c r="E8">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="F8">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="G8">
+        <v>999999</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J8">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>5.3851648071345002</v>
+      </c>
+      <c r="C9">
+        <v>6.4031242374328396</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="F9">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>999999</v>
+      </c>
+      <c r="I9">
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="J9">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>18.110770276274799</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7.2801098892805101</v>
+      </c>
+      <c r="D10">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H10">
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="I10">
+        <v>999999</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>18.110770276274799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20.099751242241702</v>
+      </c>
+      <c r="B11">
+        <v>7.2801098892805101</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>5.6568542494923797</v>
+      </c>
+      <c r="E11">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="F11">
+        <v>6.4031242374328396</v>
+      </c>
+      <c r="G11">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H11">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>999999</v>
+      </c>
+      <c r="K11">
+        <v>20.099751242241702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>999999</v>
+      </c>
+      <c r="B12">
+        <v>18.681541692269398</v>
+      </c>
+      <c r="C12">
+        <v>20.6155281280883</v>
+      </c>
+      <c r="D12">
+        <v>16.124515496597098</v>
+      </c>
+      <c r="E12">
+        <v>18.110770276274799</v>
+      </c>
+      <c r="F12">
+        <v>15.1327459504215</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>18.110770276274799</v>
+      </c>
+      <c r="J12">
+        <v>20.099751242241702</v>
+      </c>
+      <c r="K12">
+        <v>999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01426432-20CA-4863-A82E-D5F660FBB47B}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="D11" sqref="D2:D11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2238C0B-5643-4734-9982-5B9A7BCE7DA7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
